--- a/data/trans_orig/P14C14-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C14-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A387E16F-F3F1-44C0-BF6E-29FC64717F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{307AEBF3-1AAB-435E-BF46-E8B58DCE52AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E3B8A45-0426-4B5D-AD36-B76D3DCED7D8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA949D25-3C5A-4DBD-90AA-0C02BA151C60}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="119">
   <si>
     <t>Población según el tiempo de diagnóstico del fibromialgia en 2015 (Tasa respuesta: 1,95%)</t>
   </si>
@@ -83,7 +83,7 @@
     <t>65,95%</t>
   </si>
   <si>
-    <t>21,25%</t>
+    <t>19,37%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,7 +92,10 @@
     <t>54,78%</t>
   </si>
   <si>
-    <t>88,27%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,13 +110,16 @@
     <t>34,05%</t>
   </si>
   <si>
-    <t>78,75%</t>
+    <t>80,63%</t>
   </si>
   <si>
     <t>45,22%</t>
   </si>
   <si>
-    <t>11,73%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,19 +140,19 @@
     <t>70,84%</t>
   </si>
   <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
   <si>
     <t>69,02%</t>
   </si>
   <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>48,4%</t>
@@ -155,19 +161,19 @@
     <t>19,12%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -176,13 +182,13 @@
     <t>10,04%</t>
   </si>
   <si>
-    <t>29,92%</t>
+    <t>30,63%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
-    <t>28,42%</t>
+    <t>28,58%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,19 +200,19 @@
     <t>76,1%</t>
   </si>
   <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>77,92%</t>
   </si>
   <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -215,19 +221,19 @@
     <t>23,9%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
   </si>
   <si>
     <t>22,08%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
   </si>
   <si>
     <t>5,16%</t>
@@ -245,37 +251,37 @@
     <t>81,75%</t>
   </si>
   <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
   </si>
   <si>
     <t>83,1%</t>
   </si>
   <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
   </si>
   <si>
     <t>16,9%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -293,37 +299,37 @@
     <t>80,82%</t>
   </si>
   <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
   </si>
   <si>
     <t>83,49%</t>
   </si>
   <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
   <si>
     <t>19,18%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
   </si>
   <si>
     <t>16,51%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -332,43 +338,40 @@
     <t>85,05%</t>
   </si>
   <si>
-    <t>60,75%</t>
-  </si>
-  <si>
     <t>77,25%</t>
   </si>
   <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
   </si>
   <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>69,97%</t>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>39,25%</t>
-  </si>
-  <si>
     <t>21,12%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
   </si>
   <si>
     <t>20,5%</t>
   </si>
   <si>
-    <t>13,71%</t>
+    <t>13,92%</t>
   </si>
   <si>
     <t>28,19%</t>
@@ -386,7 +389,7 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>5,1%</t>
+    <t>4,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -801,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D66E55C-8C01-4793-AAA5-4BE95796B3AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338E00B3-20FD-488F-9B31-BB3FE5D7503C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -958,16 +961,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -979,10 +982,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -991,13 +994,13 @@
         <v>1803</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -1006,19 +1009,19 @@
         <v>2882</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1048,7 +1051,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1063,7 +1066,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1078,13 +1081,13 @@
         <v>1079</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -1093,13 +1096,13 @@
         <v>5294</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -1108,18 +1111,18 @@
         <v>6373</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1131,7 +1134,7 @@
         <v>1088</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
@@ -1146,13 +1149,13 @@
         <v>14361</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -1161,19 +1164,19 @@
         <v>15448</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1182,7 +1185,7 @@
         <v>1020</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
@@ -1197,13 +1200,13 @@
         <v>3876</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -1212,19 +1215,19 @@
         <v>4897</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1239,7 +1242,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1248,13 +1251,13 @@
         <v>2036</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1263,13 +1266,13 @@
         <v>2036</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1284,13 +1287,13 @@
         <v>2108</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -1299,13 +1302,13 @@
         <v>20273</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -1314,18 +1317,18 @@
         <v>22381</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1340,10 +1343,10 @@
         <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -1352,13 +1355,13 @@
         <v>30383</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M12" s="7">
         <v>30</v>
@@ -1367,19 +1370,19 @@
         <v>33682</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1394,7 +1397,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -1403,13 +1406,13 @@
         <v>9543</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -1418,19 +1421,19 @@
         <v>9543</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1445,7 +1448,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1460,7 +1463,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1475,7 +1478,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1490,13 +1493,13 @@
         <v>3299</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>36</v>
@@ -1505,13 +1508,13 @@
         <v>39926</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
         <v>39</v>
@@ -1520,18 +1523,18 @@
         <v>43225</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1546,10 +1549,10 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -1558,13 +1561,13 @@
         <v>20714</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -1573,19 +1576,19 @@
         <v>22740</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1600,7 +1603,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -1609,13 +1612,13 @@
         <v>4626</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1624,19 +1627,19 @@
         <v>4625</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1651,7 +1654,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1666,7 +1669,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1681,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1696,13 +1699,13 @@
         <v>2026</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -1711,13 +1714,13 @@
         <v>25340</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -1726,18 +1729,18 @@
         <v>27365</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1752,10 +1755,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -1764,13 +1767,13 @@
         <v>27668</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -1779,19 +1782,19 @@
         <v>33204</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -1806,7 +1809,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -1815,13 +1818,13 @@
         <v>6568</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -1830,19 +1833,19 @@
         <v>6568</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -1857,7 +1860,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1872,7 +1875,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1887,7 +1890,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,13 +1905,13 @@
         <v>5536</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -1917,13 +1920,13 @@
         <v>34236</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M23" s="7">
         <v>36</v>
@@ -1932,13 +1935,13 @@
         <v>39772</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,10 +1958,10 @@
         <v>11948</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>16</v>
@@ -1970,13 +1973,13 @@
         <v>96617</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -1985,19 +1988,19 @@
         <v>108565</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
@@ -2006,13 +2009,13 @@
         <v>2100</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -2021,13 +2024,13 @@
         <v>26415</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -2036,19 +2039,19 @@
         <v>28515</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2063,7 +2066,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2072,13 +2075,13 @@
         <v>2036</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2087,13 +2090,13 @@
         <v>2036</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,13 +2111,13 @@
         <v>14048</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H27" s="7">
         <v>115</v>
@@ -2123,13 +2126,13 @@
         <v>125068</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M27" s="7">
         <v>128</v>
@@ -2138,18 +2141,18 @@
         <v>139116</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C14-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C14-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{307AEBF3-1AAB-435E-BF46-E8B58DCE52AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19C8D97-A849-422B-95C7-42583B511561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA949D25-3C5A-4DBD-90AA-0C02BA151C60}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1CAAC848-2C6B-40BB-B4AD-DEA2F6B3410D}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="119">
   <si>
-    <t>Población según el tiempo de diagnóstico del fibromialgia en 2015 (Tasa respuesta: 1,95%)</t>
+    <t>Población según el tiempo de diagnóstico del fibromialgia en 2016 (Tasa respuesta: 1,95%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -83,7 +83,7 @@
     <t>65,95%</t>
   </si>
   <si>
-    <t>19,37%</t>
+    <t>20,62%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>54,78%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -110,16 +110,16 @@
     <t>34,05%</t>
   </si>
   <si>
-    <t>80,63%</t>
+    <t>79,38%</t>
   </si>
   <si>
     <t>45,22%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -131,7 +131,7 @@
     <t>26,42%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>51,6%</t>
@@ -140,19 +140,19 @@
     <t>70,84%</t>
   </si>
   <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>69,02%</t>
   </si>
   <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
   </si>
   <si>
     <t>48,4%</t>
@@ -161,19 +161,19 @@
     <t>19,12%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -182,16 +182,16 @@
     <t>10,04%</t>
   </si>
   <si>
-    <t>30,63%</t>
+    <t>31,57%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -200,19 +200,19 @@
     <t>76,1%</t>
   </si>
   <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>77,92%</t>
   </si>
   <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -221,19 +221,19 @@
     <t>23,9%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
   </si>
   <si>
     <t>22,08%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
   </si>
   <si>
     <t>5,16%</t>
@@ -242,7 +242,7 @@
     <t>4,78%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -251,37 +251,31 @@
     <t>81,75%</t>
   </si>
   <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
   </si>
   <si>
     <t>83,1%</t>
   </si>
   <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>95,37%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
   </si>
   <si>
     <t>16,9%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
+    <t>4,63%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -299,37 +293,37 @@
     <t>80,82%</t>
   </si>
   <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
   </si>
   <si>
     <t>83,49%</t>
   </si>
   <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>19,18%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
   </si>
   <si>
     <t>16,51%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -338,43 +332,49 @@
     <t>85,05%</t>
   </si>
   <si>
+    <t>56,04%</t>
+  </si>
+  <si>
     <t>77,25%</t>
   </si>
   <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
+    <t>43,96%</t>
+  </si>
+  <si>
     <t>21,12%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
   </si>
   <si>
     <t>20,5%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -383,13 +383,13 @@
     <t>1,63%</t>
   </si>
   <si>
-    <t>5,9%</t>
+    <t>5,33%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>4,64%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -804,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338E00B3-20FD-488F-9B31-BB3FE5D7503C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E071D7D-2728-45B3-934C-5950236E1476}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1579,10 +1579,10 @@
         <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1612,13 +1612,13 @@
         <v>4626</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1627,13 +1627,13 @@
         <v>4625</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1669,7 +1669,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,7 +1740,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1755,7 +1755,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>22</v>
@@ -1767,13 +1767,13 @@
         <v>27668</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -1782,13 +1782,13 @@
         <v>33204</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,13 +1818,13 @@
         <v>6568</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -1833,13 +1833,13 @@
         <v>6568</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,7 +1875,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1958,10 +1958,10 @@
         <v>11948</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>16</v>
@@ -1973,13 +1973,13 @@
         <v>96617</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -1988,13 +1988,13 @@
         <v>108565</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2009,13 +2009,13 @@
         <v>2100</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
